--- a/NformTester/NformTester/Keywordscripts/600.80.20.70_UnacknowledgedAlarmColor.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.80.20.70_UnacknowledgedAlarmColor.xlsx
@@ -3917,12 +3917,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -4236,6 +4230,14 @@
   </si>
   <si>
     <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4400,7 +4402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4447,6 +4449,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4760,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B267" sqref="A267:XFD270"/>
+    <sheetView tabSelected="1" topLeftCell="C232" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I245" sqref="I245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4772,8 +4775,8 @@
     <col min="6" max="6" width="22.625" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="10" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4825,7 +4828,7 @@
         <v>812</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -4849,7 +4852,7 @@
         <v>813</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -4937,13 +4940,13 @@
         <v>817</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4967,7 +4970,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>620</v>
@@ -4979,33 +4982,33 @@
       <c r="H7" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="15">
       <c r="A8" s="9" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -5027,7 +5030,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -5057,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -5083,7 +5086,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>250</v>
@@ -5111,7 +5114,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -5133,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>250</v>
@@ -5161,7 +5164,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>191</v>
@@ -5189,7 +5192,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>191</v>
@@ -5201,7 +5204,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -5219,7 +5222,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>191</v>
@@ -5231,7 +5234,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -5249,7 +5252,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>191</v>
@@ -5261,7 +5264,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -5279,7 +5282,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>191</v>
@@ -5307,7 +5310,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>833</v>
@@ -5335,7 +5338,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>191</v>
@@ -5347,7 +5350,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -5365,7 +5368,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>191</v>
@@ -5377,7 +5380,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -5395,7 +5398,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>191</v>
@@ -5419,7 +5422,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>250</v>
@@ -5443,7 +5446,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>833</v>
@@ -5465,7 +5468,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -5489,7 +5492,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -5513,7 +5516,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>250</v>
@@ -5537,7 +5540,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -5555,7 +5558,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>250</v>
@@ -5579,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>191</v>
@@ -5603,7 +5606,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>191</v>
@@ -5618,7 +5621,7 @@
         <v>834</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J31" s="2">
         <v>255</v>
@@ -5633,7 +5636,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>191</v>
@@ -5648,7 +5651,7 @@
         <v>834</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J32" s="2">
         <v>255</v>
@@ -5663,7 +5666,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>191</v>
@@ -5678,7 +5681,7 @@
         <v>834</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -5693,7 +5696,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>191</v>
@@ -5717,7 +5720,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>250</v>
@@ -5741,7 +5744,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>833</v>
@@ -5763,7 +5766,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -5781,7 +5784,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -5805,10 +5808,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>169</v>
@@ -5829,7 +5832,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>833</v>
@@ -5851,7 +5854,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>191</v>
@@ -5875,7 +5878,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>191</v>
@@ -5890,7 +5893,7 @@
         <v>834</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J42" s="2">
         <v>196</v>
@@ -5905,7 +5908,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>191</v>
@@ -5920,7 +5923,7 @@
         <v>834</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J43" s="2">
         <v>38</v>
@@ -5935,7 +5938,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>191</v>
@@ -5950,7 +5953,7 @@
         <v>834</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J44" s="2">
         <v>46</v>
@@ -5965,7 +5968,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>191</v>
@@ -5977,7 +5980,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -5991,7 +5994,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>191</v>
@@ -6003,7 +6006,7 @@
         <v>4</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -6017,7 +6020,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>191</v>
@@ -6029,7 +6032,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -6043,7 +6046,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>191</v>
@@ -6067,7 +6070,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>833</v>
@@ -6089,7 +6092,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>191</v>
@@ -6113,10 +6116,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>170</v>
@@ -6137,7 +6140,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>833</v>
@@ -6159,7 +6162,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>191</v>
@@ -6183,7 +6186,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>191</v>
@@ -6198,7 +6201,7 @@
         <v>834</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J54" s="2">
         <v>254</v>
@@ -6213,7 +6216,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>191</v>
@@ -6228,7 +6231,7 @@
         <v>834</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J55" s="2">
         <v>203</v>
@@ -6243,7 +6246,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>191</v>
@@ -6258,7 +6261,7 @@
         <v>834</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -6273,7 +6276,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>191</v>
@@ -6285,7 +6288,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -6299,7 +6302,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>191</v>
@@ -6311,7 +6314,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -6325,7 +6328,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>191</v>
@@ -6337,7 +6340,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -6351,7 +6354,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>191</v>
@@ -6375,7 +6378,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>833</v>
@@ -6397,7 +6400,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>191</v>
@@ -6421,10 +6424,10 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>171</v>
@@ -6445,7 +6448,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>833</v>
@@ -6467,7 +6470,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>191</v>
@@ -6491,7 +6494,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>191</v>
@@ -6506,7 +6509,7 @@
         <v>834</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J66" s="2">
         <v>146</v>
@@ -6521,7 +6524,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>191</v>
@@ -6536,7 +6539,7 @@
         <v>834</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J67" s="2">
         <v>212</v>
@@ -6551,7 +6554,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>191</v>
@@ -6566,7 +6569,7 @@
         <v>834</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J68" s="2">
         <v>0</v>
@@ -6581,7 +6584,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>191</v>
@@ -6605,10 +6608,10 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>167</v>
@@ -6629,13 +6632,13 @@
         <v>70</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>2</v>
@@ -6653,7 +6656,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>191</v>
@@ -6677,7 +6680,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>191</v>
@@ -6689,10 +6692,10 @@
         <v>7</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J73" s="2">
         <v>146</v>
@@ -6707,7 +6710,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>191</v>
@@ -6719,10 +6722,10 @@
         <v>7</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J74" s="2">
         <v>212</v>
@@ -6737,7 +6740,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>191</v>
@@ -6749,10 +6752,10 @@
         <v>7</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
@@ -6767,7 +6770,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>191</v>
@@ -6791,13 +6794,13 @@
         <v>76</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>2</v>
@@ -6815,7 +6818,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>191</v>
@@ -6839,7 +6842,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>191</v>
@@ -6851,10 +6854,10 @@
         <v>7</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J79" s="2">
         <v>255</v>
@@ -6869,7 +6872,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>191</v>
@@ -6881,10 +6884,10 @@
         <v>7</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J80" s="2">
         <v>255</v>
@@ -6899,7 +6902,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>191</v>
@@ -6911,10 +6914,10 @@
         <v>7</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J81" s="2">
         <v>0</v>
@@ -6929,7 +6932,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>191</v>
@@ -6953,13 +6956,13 @@
         <v>82</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>2</v>
@@ -6977,7 +6980,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>191</v>
@@ -7001,7 +7004,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>191</v>
@@ -7013,10 +7016,10 @@
         <v>7</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J85" s="2">
         <v>0</v>
@@ -7031,7 +7034,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>191</v>
@@ -7043,10 +7046,10 @@
         <v>7</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J86" s="2">
         <v>255</v>
@@ -7061,7 +7064,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>191</v>
@@ -7073,10 +7076,10 @@
         <v>7</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J87" s="2">
         <v>255</v>
@@ -7091,7 +7094,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>191</v>
@@ -7115,13 +7118,13 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>2</v>
@@ -7139,7 +7142,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>191</v>
@@ -7163,7 +7166,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>191</v>
@@ -7175,10 +7178,10 @@
         <v>7</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J91" s="2">
         <v>254</v>
@@ -7193,7 +7196,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>191</v>
@@ -7205,10 +7208,10 @@
         <v>7</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J92" s="2">
         <v>203</v>
@@ -7223,7 +7226,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>191</v>
@@ -7235,10 +7238,10 @@
         <v>7</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J93" s="2">
         <v>0</v>
@@ -7253,7 +7256,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>191</v>
@@ -7277,13 +7280,13 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>2</v>
@@ -7301,7 +7304,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>191</v>
@@ -7325,7 +7328,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>191</v>
@@ -7337,10 +7340,10 @@
         <v>7</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J97" s="2">
         <v>196</v>
@@ -7355,7 +7358,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>191</v>
@@ -7367,10 +7370,10 @@
         <v>7</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J98" s="2">
         <v>38</v>
@@ -7385,7 +7388,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>191</v>
@@ -7397,10 +7400,10 @@
         <v>7</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J99" s="2">
         <v>46</v>
@@ -7415,7 +7418,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>191</v>
@@ -7439,10 +7442,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>166</v>
@@ -7463,13 +7466,13 @@
         <v>101</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>2</v>
@@ -7487,7 +7490,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>191</v>
@@ -7511,7 +7514,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>191</v>
@@ -7523,10 +7526,10 @@
         <v>7</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J104" s="2">
         <v>146</v>
@@ -7541,7 +7544,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>191</v>
@@ -7553,10 +7556,10 @@
         <v>7</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J105" s="2">
         <v>212</v>
@@ -7571,7 +7574,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>191</v>
@@ -7583,10 +7586,10 @@
         <v>7</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -7601,7 +7604,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>191</v>
@@ -7625,13 +7628,13 @@
         <v>107</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>2</v>
@@ -7649,7 +7652,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>191</v>
@@ -7673,7 +7676,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>191</v>
@@ -7685,10 +7688,10 @@
         <v>7</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J110" s="2">
         <v>196</v>
@@ -7703,7 +7706,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>191</v>
@@ -7715,10 +7718,10 @@
         <v>7</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J111" s="2">
         <v>38</v>
@@ -7733,7 +7736,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>191</v>
@@ -7745,10 +7748,10 @@
         <v>7</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J112" s="2">
         <v>46</v>
@@ -7763,7 +7766,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>191</v>
@@ -7787,13 +7790,13 @@
         <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>2</v>
@@ -7811,7 +7814,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>191</v>
@@ -7835,7 +7838,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>191</v>
@@ -7847,10 +7850,10 @@
         <v>7</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J116" s="2">
         <v>254</v>
@@ -7865,7 +7868,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>191</v>
@@ -7877,10 +7880,10 @@
         <v>7</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J117" s="2">
         <v>203</v>
@@ -7895,7 +7898,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>191</v>
@@ -7907,10 +7910,10 @@
         <v>7</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J118" s="2">
         <v>0</v>
@@ -7925,7 +7928,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>191</v>
@@ -7949,7 +7952,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>833</v>
@@ -7971,10 +7974,10 @@
         <v>120</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>17</v>
@@ -7995,7 +7998,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -8013,7 +8016,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>19</v>
@@ -8037,7 +8040,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>145</v>
@@ -8049,7 +8052,7 @@
         <v>13</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
@@ -8063,7 +8066,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>145</v>
@@ -8075,7 +8078,7 @@
         <v>56</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
@@ -8089,7 +8092,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>145</v>
@@ -8113,7 +8116,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>191</v>
@@ -8137,7 +8140,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>191</v>
@@ -8149,7 +8152,7 @@
         <v>7</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>835</v>
@@ -8167,7 +8170,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>191</v>
@@ -8179,7 +8182,7 @@
         <v>7</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>835</v>
@@ -8197,7 +8200,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>191</v>
@@ -8209,7 +8212,7 @@
         <v>7</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>835</v>
@@ -8227,7 +8230,7 @@
         <v>130</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>833</v>
@@ -8249,7 +8252,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>191</v>
@@ -8261,7 +8264,7 @@
         <v>4</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
@@ -8275,7 +8278,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>191</v>
@@ -8287,7 +8290,7 @@
         <v>4</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
@@ -8301,7 +8304,7 @@
         <v>133</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>191</v>
@@ -8313,7 +8316,7 @@
         <v>4</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -8327,7 +8330,7 @@
         <v>134</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>191</v>
@@ -8351,7 +8354,7 @@
         <v>135</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>191</v>
@@ -8375,7 +8378,7 @@
         <v>136</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>145</v>
@@ -8399,7 +8402,7 @@
         <v>137</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -8417,7 +8420,7 @@
         <v>138</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>19</v>
@@ -8441,7 +8444,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>145</v>
@@ -8453,7 +8456,7 @@
         <v>13</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
@@ -8467,7 +8470,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>145</v>
@@ -8479,7 +8482,7 @@
         <v>56</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
@@ -8493,7 +8496,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>145</v>
@@ -8517,7 +8520,7 @@
         <v>142</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>191</v>
@@ -8541,7 +8544,7 @@
         <v>143</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>191</v>
@@ -8553,7 +8556,7 @@
         <v>7</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>835</v>
@@ -8571,7 +8574,7 @@
         <v>144</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>191</v>
@@ -8583,7 +8586,7 @@
         <v>7</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>835</v>
@@ -8601,7 +8604,7 @@
         <v>145</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>191</v>
@@ -8613,7 +8616,7 @@
         <v>7</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>835</v>
@@ -8631,7 +8634,7 @@
         <v>146</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>191</v>
@@ -8655,7 +8658,7 @@
         <v>147</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>145</v>
@@ -8667,7 +8670,7 @@
         <v>56</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -8681,7 +8684,7 @@
         <v>148</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>145</v>
@@ -8705,7 +8708,7 @@
         <v>149</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>191</v>
@@ -8729,7 +8732,7 @@
         <v>150</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>191</v>
@@ -8741,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>835</v>
@@ -8759,7 +8762,7 @@
         <v>151</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>191</v>
@@ -8771,7 +8774,7 @@
         <v>7</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>835</v>
@@ -8789,7 +8792,7 @@
         <v>152</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>191</v>
@@ -8801,7 +8804,7 @@
         <v>7</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>835</v>
@@ -8819,7 +8822,7 @@
         <v>153</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>191</v>
@@ -8843,7 +8846,7 @@
         <v>154</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>145</v>
@@ -8867,7 +8870,7 @@
         <v>155</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>833</v>
@@ -8889,7 +8892,7 @@
         <v>156</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>19</v>
@@ -8913,7 +8916,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>145</v>
@@ -8925,7 +8928,7 @@
         <v>13</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
@@ -8939,7 +8942,7 @@
         <v>158</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>145</v>
@@ -8951,7 +8954,7 @@
         <v>56</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -8965,7 +8968,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>145</v>
@@ -8989,7 +8992,7 @@
         <v>160</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>191</v>
@@ -9013,7 +9016,7 @@
         <v>161</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>191</v>
@@ -9025,10 +9028,10 @@
         <v>7</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J162" s="2">
         <v>146</v>
@@ -9043,7 +9046,7 @@
         <v>162</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>191</v>
@@ -9055,10 +9058,10 @@
         <v>7</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J163" s="2">
         <v>212</v>
@@ -9073,7 +9076,7 @@
         <v>163</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>191</v>
@@ -9085,10 +9088,10 @@
         <v>7</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J164" s="2">
         <v>0</v>
@@ -9103,7 +9106,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>191</v>
@@ -9127,7 +9130,7 @@
         <v>165</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>833</v>
@@ -9149,7 +9152,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>145</v>
@@ -9161,7 +9164,7 @@
         <v>56</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -9175,7 +9178,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>145</v>
@@ -9199,7 +9202,7 @@
         <v>168</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>191</v>
@@ -9223,7 +9226,7 @@
         <v>169</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>191</v>
@@ -9235,10 +9238,10 @@
         <v>7</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J170" s="2">
         <v>255</v>
@@ -9253,7 +9256,7 @@
         <v>170</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>191</v>
@@ -9265,10 +9268,10 @@
         <v>7</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J171" s="2">
         <v>255</v>
@@ -9283,7 +9286,7 @@
         <v>171</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>191</v>
@@ -9295,10 +9298,10 @@
         <v>7</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J172" s="2">
         <v>0</v>
@@ -9313,7 +9316,7 @@
         <v>172</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>191</v>
@@ -9337,7 +9340,7 @@
         <v>173</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>833</v>
@@ -9359,7 +9362,7 @@
         <v>174</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>145</v>
@@ -9371,7 +9374,7 @@
         <v>56</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
@@ -9385,7 +9388,7 @@
         <v>175</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>145</v>
@@ -9409,7 +9412,7 @@
         <v>176</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>191</v>
@@ -9433,7 +9436,7 @@
         <v>177</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>191</v>
@@ -9445,10 +9448,10 @@
         <v>7</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J178" s="2">
         <v>0</v>
@@ -9463,7 +9466,7 @@
         <v>178</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>191</v>
@@ -9475,10 +9478,10 @@
         <v>7</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J179" s="2">
         <v>255</v>
@@ -9493,7 +9496,7 @@
         <v>179</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>191</v>
@@ -9505,10 +9508,10 @@
         <v>7</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J180" s="2">
         <v>255</v>
@@ -9523,7 +9526,7 @@
         <v>180</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>191</v>
@@ -9547,7 +9550,7 @@
         <v>181</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>833</v>
@@ -9569,7 +9572,7 @@
         <v>182</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>145</v>
@@ -9581,7 +9584,7 @@
         <v>56</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
@@ -9595,7 +9598,7 @@
         <v>183</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>145</v>
@@ -9619,7 +9622,7 @@
         <v>184</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>191</v>
@@ -9643,7 +9646,7 @@
         <v>185</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>191</v>
@@ -9655,10 +9658,10 @@
         <v>7</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J186" s="2">
         <v>254</v>
@@ -9673,7 +9676,7 @@
         <v>186</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>191</v>
@@ -9685,10 +9688,10 @@
         <v>7</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J187" s="2">
         <v>203</v>
@@ -9703,7 +9706,7 @@
         <v>187</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>191</v>
@@ -9715,10 +9718,10 @@
         <v>7</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J188" s="2">
         <v>0</v>
@@ -9733,7 +9736,7 @@
         <v>188</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>191</v>
@@ -9757,7 +9760,7 @@
         <v>189</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>833</v>
@@ -9779,7 +9782,7 @@
         <v>190</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>145</v>
@@ -9791,7 +9794,7 @@
         <v>3</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
@@ -9805,7 +9808,7 @@
         <v>191</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>145</v>
@@ -9817,7 +9820,7 @@
         <v>56</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -9831,7 +9834,7 @@
         <v>192</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>145</v>
@@ -9855,7 +9858,7 @@
         <v>193</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>191</v>
@@ -9879,7 +9882,7 @@
         <v>194</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>191</v>
@@ -9891,10 +9894,10 @@
         <v>7</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J195" s="2">
         <v>196</v>
@@ -9909,7 +9912,7 @@
         <v>195</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>191</v>
@@ -9921,10 +9924,10 @@
         <v>7</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J196" s="2">
         <v>38</v>
@@ -9939,7 +9942,7 @@
         <v>196</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>191</v>
@@ -9951,10 +9954,10 @@
         <v>7</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J197" s="2">
         <v>46</v>
@@ -9969,7 +9972,7 @@
         <v>197</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>191</v>
@@ -9993,7 +9996,7 @@
         <v>198</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>833</v>
@@ -10015,13 +10018,13 @@
         <v>199</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>2</v>
@@ -10039,7 +10042,7 @@
         <v>200</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
@@ -10057,7 +10060,7 @@
         <v>201</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>19</v>
@@ -10081,10 +10084,10 @@
         <v>202</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>169</v>
@@ -10105,7 +10108,7 @@
         <v>203</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>833</v>
@@ -10127,7 +10130,7 @@
         <v>204</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>191</v>
@@ -10151,7 +10154,7 @@
         <v>205</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>191</v>
@@ -10166,7 +10169,7 @@
         <v>834</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J206" s="2">
         <v>254</v>
@@ -10181,7 +10184,7 @@
         <v>206</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>191</v>
@@ -10196,7 +10199,7 @@
         <v>834</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J207" s="2">
         <v>203</v>
@@ -10211,7 +10214,7 @@
         <v>207</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>191</v>
@@ -10226,7 +10229,7 @@
         <v>834</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J208" s="2">
         <v>0</v>
@@ -10241,7 +10244,7 @@
         <v>208</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>191</v>
@@ -10253,7 +10256,7 @@
         <v>4</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
@@ -10267,7 +10270,7 @@
         <v>209</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>191</v>
@@ -10279,7 +10282,7 @@
         <v>4</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
@@ -10293,7 +10296,7 @@
         <v>210</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>191</v>
@@ -10305,7 +10308,7 @@
         <v>4</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
@@ -10319,7 +10322,7 @@
         <v>211</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>191</v>
@@ -10343,7 +10346,7 @@
         <v>212</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>833</v>
@@ -10365,7 +10368,7 @@
         <v>213</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>191</v>
@@ -10389,10 +10392,10 @@
         <v>214</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>170</v>
@@ -10413,7 +10416,7 @@
         <v>215</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>833</v>
@@ -10435,7 +10438,7 @@
         <v>216</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>191</v>
@@ -10459,7 +10462,7 @@
         <v>217</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>191</v>
@@ -10474,7 +10477,7 @@
         <v>834</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J218" s="2">
         <v>196</v>
@@ -10489,7 +10492,7 @@
         <v>218</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>191</v>
@@ -10504,7 +10507,7 @@
         <v>834</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J219" s="2">
         <v>38</v>
@@ -10519,7 +10522,7 @@
         <v>219</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>191</v>
@@ -10534,7 +10537,7 @@
         <v>834</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J220" s="2">
         <v>46</v>
@@ -10549,7 +10552,7 @@
         <v>220</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>191</v>
@@ -10561,7 +10564,7 @@
         <v>4</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
@@ -10575,7 +10578,7 @@
         <v>221</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>191</v>
@@ -10587,7 +10590,7 @@
         <v>4</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
@@ -10601,7 +10604,7 @@
         <v>222</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>191</v>
@@ -10613,7 +10616,7 @@
         <v>4</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
@@ -10627,7 +10630,7 @@
         <v>223</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>191</v>
@@ -10651,7 +10654,7 @@
         <v>224</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>833</v>
@@ -10673,7 +10676,7 @@
         <v>225</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>191</v>
@@ -10697,10 +10700,10 @@
         <v>226</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>17</v>
@@ -10721,7 +10724,7 @@
         <v>227</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>19</v>
@@ -10745,7 +10748,7 @@
         <v>228</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>145</v>
@@ -10757,7 +10760,7 @@
         <v>13</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
@@ -10771,7 +10774,7 @@
         <v>229</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>145</v>
@@ -10783,7 +10786,7 @@
         <v>56</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
@@ -10797,7 +10800,7 @@
         <v>230</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>145</v>
@@ -10821,7 +10824,7 @@
         <v>231</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>145</v>
@@ -10845,7 +10848,7 @@
         <v>232</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>833</v>
@@ -10867,7 +10870,7 @@
         <v>233</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>19</v>
@@ -10891,7 +10894,7 @@
         <v>234</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>145</v>
@@ -10903,7 +10906,7 @@
         <v>13</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
@@ -10917,7 +10920,7 @@
         <v>235</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>145</v>
@@ -10929,7 +10932,7 @@
         <v>56</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
@@ -10943,7 +10946,7 @@
         <v>236</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>145</v>
@@ -10967,7 +10970,7 @@
         <v>237</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>191</v>
@@ -10991,7 +10994,7 @@
         <v>238</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>191</v>
@@ -11003,7 +11006,7 @@
         <v>7</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I239" s="2" t="s">
         <v>835</v>
@@ -11021,7 +11024,7 @@
         <v>239</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>191</v>
@@ -11033,7 +11036,7 @@
         <v>7</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I240" s="2" t="s">
         <v>835</v>
@@ -11051,7 +11054,7 @@
         <v>240</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>191</v>
@@ -11063,7 +11066,7 @@
         <v>7</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I241" s="2" t="s">
         <v>835</v>
@@ -11081,7 +11084,7 @@
         <v>241</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>191</v>
@@ -11105,7 +11108,7 @@
         <v>242</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>145</v>
@@ -11117,7 +11120,7 @@
         <v>56</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
@@ -11131,7 +11134,7 @@
         <v>243</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>145</v>
@@ -11155,7 +11158,7 @@
         <v>244</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>191</v>
@@ -11179,7 +11182,7 @@
         <v>245</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>191</v>
@@ -11191,7 +11194,7 @@
         <v>7</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I246" s="2" t="s">
         <v>835</v>
@@ -11209,7 +11212,7 @@
         <v>246</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>191</v>
@@ -11221,7 +11224,7 @@
         <v>7</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I247" s="2" t="s">
         <v>835</v>
@@ -11239,7 +11242,7 @@
         <v>247</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>191</v>
@@ -11251,7 +11254,7 @@
         <v>7</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I248" s="2" t="s">
         <v>835</v>
@@ -11269,7 +11272,7 @@
         <v>248</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>191</v>
@@ -11293,7 +11296,7 @@
         <v>249</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>145</v>
@@ -11317,7 +11320,7 @@
         <v>250</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
@@ -11335,7 +11338,7 @@
         <v>251</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>19</v>
@@ -11359,7 +11362,7 @@
         <v>252</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>19</v>
@@ -11383,7 +11386,7 @@
         <v>253</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>250</v>
@@ -11407,7 +11410,7 @@
         <v>254</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>250</v>
@@ -11431,7 +11434,7 @@
         <v>255</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>191</v>
@@ -11455,7 +11458,7 @@
         <v>256</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>191</v>
@@ -11470,7 +11473,7 @@
         <v>834</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J257" s="2">
         <v>255</v>
@@ -11485,7 +11488,7 @@
         <v>257</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>191</v>
@@ -11500,7 +11503,7 @@
         <v>834</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J258" s="2">
         <v>255</v>
@@ -11515,7 +11518,7 @@
         <v>258</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>191</v>
@@ -11530,7 +11533,7 @@
         <v>834</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J259" s="2">
         <v>0</v>
@@ -11545,7 +11548,7 @@
         <v>259</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>191</v>
@@ -11557,7 +11560,7 @@
         <v>4</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
@@ -11571,7 +11574,7 @@
         <v>260</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>191</v>
@@ -11583,7 +11586,7 @@
         <v>4</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
@@ -11597,7 +11600,7 @@
         <v>261</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>191</v>
@@ -11609,7 +11612,7 @@
         <v>4</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
@@ -11623,7 +11626,7 @@
         <v>262</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>191</v>
@@ -11647,7 +11650,7 @@
         <v>263</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>833</v>
@@ -11669,7 +11672,7 @@
         <v>264</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>191</v>
@@ -11693,7 +11696,7 @@
         <v>265</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>250</v>
@@ -12014,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="CK1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2" spans="1:89">
@@ -12028,7 +12031,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G2" t="s">
         <v>192</v>
@@ -12229,7 +12232,7 @@
         <v>2</v>
       </c>
       <c r="CK2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:89">
@@ -12417,7 +12420,7 @@
         <v>3</v>
       </c>
       <c r="CK3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4" spans="1:89">
@@ -12596,7 +12599,7 @@
         <v>4</v>
       </c>
       <c r="CK4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="5" spans="1:89">
@@ -12763,7 +12766,7 @@
         <v>5</v>
       </c>
       <c r="CK5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" spans="1:89">
@@ -12927,7 +12930,7 @@
         <v>6</v>
       </c>
       <c r="CK6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7" spans="1:89">
@@ -13085,7 +13088,7 @@
         <v>7</v>
       </c>
       <c r="CK7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="8" spans="1:89">
@@ -13231,7 +13234,7 @@
         <v>8</v>
       </c>
       <c r="CK8" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="9" spans="1:89">
@@ -13368,7 +13371,7 @@
         <v>9</v>
       </c>
       <c r="CK9" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:89">
@@ -13490,7 +13493,7 @@
         <v>10</v>
       </c>
       <c r="CK10" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="11" spans="1:89">
@@ -13600,7 +13603,7 @@
         <v>11</v>
       </c>
       <c r="CK11" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="12" spans="1:89">
@@ -13707,7 +13710,7 @@
         <v>12</v>
       </c>
       <c r="CK12" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:89">
@@ -13808,7 +13811,7 @@
         <v>13</v>
       </c>
       <c r="CK13" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="14" spans="1:89">
@@ -13885,7 +13888,7 @@
         <v>14</v>
       </c>
       <c r="CK14" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:89">
@@ -13959,7 +13962,7 @@
         <v>15</v>
       </c>
       <c r="CK15" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:89">
@@ -14030,7 +14033,7 @@
         <v>16</v>
       </c>
       <c r="CK16" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="17" spans="1:89">
@@ -14098,7 +14101,7 @@
         <v>17</v>
       </c>
       <c r="CK17" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="18" spans="1:89">
@@ -14163,7 +14166,7 @@
         <v>18</v>
       </c>
       <c r="CK18" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="19" spans="1:89" ht="10.5" customHeight="1">
@@ -14222,7 +14225,7 @@
         <v>19</v>
       </c>
       <c r="CK19" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="20" spans="1:89">
@@ -14971,7 +14974,7 @@
         <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AQ47" t="s">
         <v>480</v>
@@ -15485,7 +15488,7 @@
     </row>
     <row r="88" spans="1:43">
       <c r="A88" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E88" t="s">
         <v>114</v>
@@ -19072,7 +19075,7 @@
         <v>2</v>
       </c>
       <c r="APG1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="APH1" t="s">
         <v>2</v>
